--- a/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_pressure.xlsx
+++ b/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_pressure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes
-(données normalisées)</t>
+          <t>Diff. Top 5 avec Bottom 15 en %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -488,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.2033459289249</v>
+        <v>9.336240020625647</v>
       </c>
       <c r="C2" t="n">
-        <v>100.3105473631526</v>
+        <v>7.130305152843748</v>
       </c>
       <c r="D2" t="n">
-        <v>1.163458471271229</v>
+        <v>30.94</v>
       </c>
       <c r="E2" t="n">
-        <v>19.35380361143575</v>
+        <v>1.454401479399138</v>
       </c>
       <c r="F2" t="n">
-        <v>25.63418542037003</v>
+        <v>1.823218997750101</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>7.029111239637555</v>
       </c>
       <c r="H2" t="n">
-        <v>62.03694444444444</v>
+        <v>4.256878917378917</v>
       </c>
       <c r="I2" t="n">
-        <v>147.3684210526316</v>
+        <v>10.75320563695564</v>
       </c>
       <c r="J2" t="n">
-        <v>143.421052631579</v>
+        <v>10.15278581068055</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +527,7 @@
         <v>1.161740688056477</v>
       </c>
       <c r="D3" t="n">
-        <v>1.104381771333292</v>
+        <v>29.99</v>
       </c>
       <c r="E3" t="n">
         <v>0.2542689729796163</v>
@@ -562,7 +561,7 @@
         <v>2.183035667246194</v>
       </c>
       <c r="D4" t="n">
-        <v>1.050918047139108</v>
+        <v>20.22</v>
       </c>
       <c r="E4" t="n">
         <v>0.3654244503781937</v>
@@ -586,681 +585,681 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.56891587944219</v>
+        <v>16.69019343229869</v>
       </c>
       <c r="C5" t="n">
-        <v>9.232853906538116</v>
+        <v>14.209369896212</v>
       </c>
       <c r="D5" t="n">
-        <v>1.015852745090779</v>
+        <v>17.46</v>
       </c>
       <c r="E5" t="n">
-        <v>1.318457723802081</v>
+        <v>2.740571567925571</v>
       </c>
       <c r="F5" t="n">
-        <v>1.325760001426242</v>
+        <v>2.56610970812234</v>
       </c>
       <c r="G5" t="n">
-        <v>8.605263157894736</v>
+        <v>12.97368421052632</v>
       </c>
       <c r="H5" t="n">
-        <v>6.421052631578948</v>
+        <v>9.026315789473685</v>
       </c>
       <c r="I5" t="n">
-        <v>12.27777777777778</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="J5" t="n">
-        <v>11.07894736842105</v>
+        <v>19.54054054054054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.18477282950967</v>
+        <v>5.513585245164192</v>
       </c>
       <c r="C6" t="n">
-        <v>17.58100468889943</v>
+        <v>4.70931194352247</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9759349088025914</v>
+        <v>17.08</v>
       </c>
       <c r="E6" t="n">
-        <v>2.830935148955014</v>
+        <v>0.8903430800583454</v>
       </c>
       <c r="F6" t="n">
-        <v>2.657775612889215</v>
+        <v>0.8306267030370763</v>
       </c>
       <c r="G6" t="n">
-        <v>16.21052631578947</v>
+        <v>4.289473684210527</v>
       </c>
       <c r="H6" t="n">
-        <v>13.02631578947368</v>
+        <v>2.947368421052631</v>
       </c>
       <c r="I6" t="n">
-        <v>23.86111111111111</v>
+        <v>6.444444444444445</v>
       </c>
       <c r="J6" t="n">
-        <v>23.37837837837838</v>
+        <v>5.945945945945946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+          <t>count_ball_retentions_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.513585245164192</v>
+        <v>19.18481781376518</v>
       </c>
       <c r="C7" t="n">
-        <v>4.70931194352247</v>
+        <v>16.53568305147252</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9692161452423749</v>
+        <v>16.02</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8903430800583454</v>
+        <v>2.883621321722518</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8306267030370763</v>
+        <v>2.790999176861988</v>
       </c>
       <c r="G7" t="n">
-        <v>4.289473684210527</v>
+        <v>15.42105263157895</v>
       </c>
       <c r="H7" t="n">
-        <v>2.947368421052631</v>
+        <v>11.05263157894737</v>
       </c>
       <c r="I7" t="n">
-        <v>6.444444444444445</v>
+        <v>23.25</v>
       </c>
       <c r="J7" t="n">
-        <v>5.945945945945946</v>
+        <v>21.94594594594595</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_per_match</t>
+          <t>count_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.69482681061628</v>
+        <v>20.18477282950967</v>
       </c>
       <c r="C8" t="n">
-        <v>20.95541330804489</v>
+        <v>17.58100468889943</v>
       </c>
       <c r="D8" t="n">
-        <v>0.967629643670107</v>
+        <v>14.81</v>
       </c>
       <c r="E8" t="n">
-        <v>2.961446307634882</v>
+        <v>2.830935148955014</v>
       </c>
       <c r="F8" t="n">
-        <v>2.865289427433527</v>
+        <v>2.657775612889215</v>
       </c>
       <c r="G8" t="n">
-        <v>19.52631578947368</v>
+        <v>16.21052631578947</v>
       </c>
       <c r="H8" t="n">
-        <v>16.39473684210526</v>
+        <v>13.02631578947368</v>
       </c>
       <c r="I8" t="n">
-        <v>27.77777777777778</v>
+        <v>23.86111111111111</v>
       </c>
       <c r="J8" t="n">
-        <v>26.7027027027027</v>
+        <v>23.37837837837838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_in_sample</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.69482681061628</v>
+        <v>10.56891587944219</v>
       </c>
       <c r="C9" t="n">
-        <v>20.95541330804489</v>
+        <v>9.232853906538116</v>
       </c>
       <c r="D9" t="n">
-        <v>0.967629643670107</v>
+        <v>14.47</v>
       </c>
       <c r="E9" t="n">
-        <v>2.961446307634882</v>
+        <v>1.318457723802081</v>
       </c>
       <c r="F9" t="n">
-        <v>2.865289427433527</v>
+        <v>1.325760001426242</v>
       </c>
       <c r="G9" t="n">
-        <v>19.52631578947368</v>
+        <v>8.605263157894736</v>
       </c>
       <c r="H9" t="n">
-        <v>16.39473684210526</v>
+        <v>6.421052631578948</v>
       </c>
       <c r="I9" t="n">
-        <v>27.77777777777778</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="J9" t="n">
-        <v>26.7027027027027</v>
+        <v>11.07894736842105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_low_pressure_per_match</t>
+          <t>count_low_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.69019343229869</v>
+        <v>23.69482681061628</v>
       </c>
       <c r="C10" t="n">
-        <v>14.209369896212</v>
+        <v>20.95541330804489</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9638598311676241</v>
+        <v>13.07</v>
       </c>
       <c r="E10" t="n">
-        <v>2.740571567925571</v>
+        <v>2.961446307634882</v>
       </c>
       <c r="F10" t="n">
-        <v>2.56610970812234</v>
+        <v>2.865289427433527</v>
       </c>
       <c r="G10" t="n">
-        <v>12.97368421052632</v>
+        <v>19.52631578947368</v>
       </c>
       <c r="H10" t="n">
-        <v>9.026315789473685</v>
+        <v>16.39473684210526</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22222222222222</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="J10" t="n">
-        <v>19.54054054054054</v>
+        <v>26.7027027027027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_low_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.18481781376518</v>
+        <v>7.626968061178587</v>
       </c>
       <c r="C11" t="n">
-        <v>16.53568305147252</v>
+        <v>6.79456561824983</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9593389318018781</v>
+        <v>12.25</v>
       </c>
       <c r="E11" t="n">
-        <v>2.883621321722518</v>
+        <v>0.7311622094784265</v>
       </c>
       <c r="F11" t="n">
-        <v>2.790999176861988</v>
+        <v>1.062349159849555</v>
       </c>
       <c r="G11" t="n">
-        <v>15.42105263157895</v>
+        <v>6.473684210526316</v>
       </c>
       <c r="H11" t="n">
-        <v>11.05263157894737</v>
+        <v>4.861111111111111</v>
       </c>
       <c r="I11" t="n">
-        <v>23.25</v>
+        <v>8.472222222222221</v>
       </c>
       <c r="J11" t="n">
-        <v>21.94594594594595</v>
+        <v>8.513513513513514</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_low_pressure</t>
+          <t>count_completed_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>739.3661826360774</v>
+        <v>77.08731443994603</v>
       </c>
       <c r="C12" t="n">
-        <v>679.4216600811338</v>
+        <v>69.82267267267267</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8782639290975089</v>
+        <v>10.4</v>
       </c>
       <c r="E12" t="n">
-        <v>54.73044966293892</v>
+        <v>12.57087387709173</v>
       </c>
       <c r="F12" t="n">
-        <v>79.69964460830573</v>
+        <v>10.01707456512674</v>
       </c>
       <c r="G12" t="n">
-        <v>647.8347368421053</v>
+        <v>56.52631578947368</v>
       </c>
       <c r="H12" t="n">
-        <v>504.4305263157895</v>
+        <v>51.97368421052632</v>
       </c>
       <c r="I12" t="n">
-        <v>784.8397435897435</v>
+        <v>87.41025641025641</v>
       </c>
       <c r="J12" t="n">
-        <v>795.4264864864865</v>
+        <v>89.81578947368421</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.626968061178587</v>
+        <v>3.846221322537112</v>
       </c>
       <c r="C13" t="n">
-        <v>6.79456561824983</v>
+        <v>3.490703861756494</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8704369195428054</v>
+        <v>10.18</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7311622094784265</v>
+        <v>0.50426749496717</v>
       </c>
       <c r="F13" t="n">
-        <v>1.062349159849555</v>
+        <v>0.5746195924315877</v>
       </c>
       <c r="G13" t="n">
-        <v>6.473684210526316</v>
+        <v>3.263157894736842</v>
       </c>
       <c r="H13" t="n">
-        <v>4.861111111111111</v>
+        <v>2.368421052631579</v>
       </c>
       <c r="I13" t="n">
-        <v>8.472222222222221</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="J13" t="n">
-        <v>8.513513513513514</v>
+        <v>4.605263157894737</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_low_pressure</t>
+          <t>count_ball_retentions_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>777.7834869545659</v>
+        <v>89.33362573099416</v>
       </c>
       <c r="C14" t="n">
-        <v>726.4737757757758</v>
+        <v>81.56018386807861</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8050160333357497</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>47.6770428894762</v>
+        <v>13.5365188540717</v>
       </c>
       <c r="F14" t="n">
-        <v>78.92726710631213</v>
+        <v>10.62296938117507</v>
       </c>
       <c r="G14" t="n">
-        <v>698.8594736842106</v>
+        <v>66.73684210526316</v>
       </c>
       <c r="H14" t="n">
-        <v>552.7794736842105</v>
+        <v>62.5</v>
       </c>
       <c r="I14" t="n">
-        <v>824.0413888888889</v>
+        <v>100.3333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>836.0945945945946</v>
+        <v>102.6842105263158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_medium_pressure_per_match</t>
+          <t>pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.45973909131803</v>
+        <v>52.4928816867493</v>
       </c>
       <c r="C15" t="n">
-        <v>87.36481481481481</v>
+        <v>48.34089765288756</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7735026546551598</v>
+        <v>8.59</v>
       </c>
       <c r="E15" t="n">
-        <v>12.68147814783006</v>
+        <v>4.691245076638592</v>
       </c>
       <c r="F15" t="n">
-        <v>9.510666480602348</v>
+        <v>5.942040746974369</v>
       </c>
       <c r="G15" t="n">
-        <v>73.5</v>
+        <v>44.93953981106613</v>
       </c>
       <c r="H15" t="n">
-        <v>70.39473684210526</v>
+        <v>34.66395180258338</v>
       </c>
       <c r="I15" t="n">
-        <v>105.2051282051282</v>
+        <v>56.43114633230018</v>
       </c>
       <c r="J15" t="n">
-        <v>106.0789473684211</v>
+        <v>56.42740967804125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_medium_pressure_per_match</t>
+          <t>count_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.33362573099416</v>
+        <v>94.45973909131803</v>
       </c>
       <c r="C16" t="n">
-        <v>81.56018386807862</v>
+        <v>87.36481481481481</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7608809353314989</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>13.5365188540717</v>
+        <v>12.68147814783006</v>
       </c>
       <c r="F16" t="n">
-        <v>10.62296938117507</v>
+        <v>9.510666480602348</v>
       </c>
       <c r="G16" t="n">
-        <v>66.73684210526316</v>
+        <v>73.5</v>
       </c>
       <c r="H16" t="n">
-        <v>62.5</v>
+        <v>70.39473684210526</v>
       </c>
       <c r="I16" t="n">
-        <v>100.3333333333333</v>
+        <v>105.2051282051282</v>
       </c>
       <c r="J16" t="n">
-        <v>102.6842105263158</v>
+        <v>106.0789473684211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_medium_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>421.0352932973459</v>
+        <v>112.2938371569951</v>
       </c>
       <c r="C17" t="n">
-        <v>442.0173569622254</v>
+        <v>104.9509772930826</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7595912413615934</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>10.24136497976688</v>
+        <v>13.94559954714507</v>
       </c>
       <c r="F17" t="n">
-        <v>20.67919782741387</v>
+        <v>10.29349370325683</v>
       </c>
       <c r="G17" t="n">
-        <v>409.6921052631579</v>
+        <v>88.65789473684211</v>
       </c>
       <c r="H17" t="n">
-        <v>407.032972972973</v>
+        <v>87.18421052631579</v>
       </c>
       <c r="I17" t="n">
-        <v>433.5188888888889</v>
+        <v>123.9487179487179</v>
       </c>
       <c r="J17" t="n">
-        <v>474.3116216216216</v>
+        <v>125.8947368421053</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>count_completed_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.030701754386</v>
+        <v>73.75528565002249</v>
       </c>
       <c r="C18" t="n">
-        <v>98.20574258468994</v>
+        <v>68.93578315157264</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7576670870300737</v>
+        <v>6.99</v>
       </c>
       <c r="E18" t="n">
-        <v>10.17799139937853</v>
+        <v>8.086254195114529</v>
       </c>
       <c r="F18" t="n">
-        <v>8.538416520190518</v>
+        <v>7.252422042731636</v>
       </c>
       <c r="G18" t="n">
-        <v>89.71052631578948</v>
+        <v>61.71052631578947</v>
       </c>
       <c r="H18" t="n">
-        <v>85.94736842105263</v>
+        <v>58.18421052631579</v>
       </c>
       <c r="I18" t="n">
-        <v>115.75</v>
+        <v>82.27777777777777</v>
       </c>
       <c r="J18" t="n">
-        <v>117.2105263157895</v>
+        <v>84.84210526315789</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_medium_pressure_per_match</t>
+          <t>ball_retention_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77.08731443994603</v>
+        <v>55.20001949512101</v>
       </c>
       <c r="C19" t="n">
-        <v>69.82267267267267</v>
+        <v>51.68493821640927</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7543624035241649</v>
+        <v>6.8</v>
       </c>
       <c r="E19" t="n">
-        <v>12.57087387709173</v>
+        <v>4.279940929814122</v>
       </c>
       <c r="F19" t="n">
-        <v>10.01707456512674</v>
+        <v>5.904810436200223</v>
       </c>
       <c r="G19" t="n">
-        <v>56.52631578947368</v>
+        <v>48.45156718719877</v>
       </c>
       <c r="H19" t="n">
-        <v>51.97368421052632</v>
+        <v>38.02694197031039</v>
       </c>
       <c r="I19" t="n">
-        <v>87.41025641025641</v>
+        <v>59.84265725478225</v>
       </c>
       <c r="J19" t="n">
-        <v>89.81578947368421</v>
+        <v>59.46088538654327</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.2938371569951</v>
+        <v>22.24903554953069</v>
       </c>
       <c r="C20" t="n">
-        <v>104.9509772930826</v>
+        <v>20.92737169447827</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7471223621857268</v>
+        <v>6.32</v>
       </c>
       <c r="E20" t="n">
-        <v>13.94559954714507</v>
+        <v>2.867423612544366</v>
       </c>
       <c r="F20" t="n">
-        <v>10.29349370325683</v>
+        <v>2.850940159381174</v>
       </c>
       <c r="G20" t="n">
-        <v>88.65789473684211</v>
+        <v>18.87132793522267</v>
       </c>
       <c r="H20" t="n">
-        <v>87.18421052631579</v>
+        <v>15.53563603063603</v>
       </c>
       <c r="I20" t="n">
-        <v>123.9487179487179</v>
+        <v>26.3879085188316</v>
       </c>
       <c r="J20" t="n">
-        <v>125.8947368421053</v>
+        <v>24.77467890881049</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_in_sample</t>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>112.2938371569951</v>
+        <v>104.030701754386</v>
       </c>
       <c r="C21" t="n">
-        <v>104.9509772930826</v>
+        <v>98.20574258468994</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7471223621857268</v>
+        <v>5.93</v>
       </c>
       <c r="E21" t="n">
-        <v>13.94559954714507</v>
+        <v>10.17799139937853</v>
       </c>
       <c r="F21" t="n">
-        <v>10.29349370325683</v>
+        <v>8.538416520190518</v>
       </c>
       <c r="G21" t="n">
-        <v>88.65789473684211</v>
+        <v>89.71052631578948</v>
       </c>
       <c r="H21" t="n">
-        <v>87.18421052631579</v>
+        <v>85.94736842105263</v>
       </c>
       <c r="I21" t="n">
-        <v>123.9487179487179</v>
+        <v>115.75</v>
       </c>
       <c r="J21" t="n">
-        <v>125.8947368421053</v>
+        <v>117.2105263157895</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_high_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.75528565002249</v>
+        <v>18.62226225731833</v>
       </c>
       <c r="C22" t="n">
-        <v>68.93578315157264</v>
+        <v>17.58697884313586</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7386359182314729</v>
+        <v>5.89</v>
       </c>
       <c r="E22" t="n">
-        <v>8.086254195114529</v>
+        <v>1.597993908586833</v>
       </c>
       <c r="F22" t="n">
-        <v>7.252422042731636</v>
+        <v>1.948319402583739</v>
       </c>
       <c r="G22" t="n">
-        <v>61.71052631578947</v>
+        <v>16.88554732986312</v>
       </c>
       <c r="H22" t="n">
-        <v>58.18421052631579</v>
+        <v>13.25536808367072</v>
       </c>
       <c r="I22" t="n">
-        <v>82.27777777777777</v>
+        <v>20.67272785109627</v>
       </c>
       <c r="J22" t="n">
-        <v>84.84210526315789</v>
+        <v>21.17582485058801</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_high_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.15368870895188</v>
+        <v>29.87813510353045</v>
       </c>
       <c r="C23" t="n">
-        <v>90.00050576892681</v>
+        <v>31.43611831224375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7363506445254241</v>
+        <v>-4.96</v>
       </c>
       <c r="E23" t="n">
-        <v>7.170040632059128</v>
+        <v>1.285194936486325</v>
       </c>
       <c r="F23" t="n">
-        <v>6.563905869924615</v>
+        <v>1.690702344637068</v>
       </c>
       <c r="G23" t="n">
-        <v>83.10526315789474</v>
+        <v>28.33490861769809</v>
       </c>
       <c r="H23" t="n">
-        <v>82.36842105263158</v>
+        <v>28.20424216324216</v>
       </c>
       <c r="I23" t="n">
-        <v>101.9722222222222</v>
+        <v>31.70571560846561</v>
       </c>
       <c r="J23" t="n">
-        <v>105.9473684210526</v>
+        <v>33.02838748638749</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_in_sample</t>
+          <t>count_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>140.7579172289699</v>
+        <v>94.15368870895188</v>
       </c>
       <c r="C24" t="n">
-        <v>135.776386913229</v>
+        <v>90.00050576892681</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7342513599156941</v>
+        <v>4.61</v>
       </c>
       <c r="E24" t="n">
-        <v>9.871129542971472</v>
+        <v>7.170040632059128</v>
       </c>
       <c r="F24" t="n">
-        <v>7.95604988594815</v>
+        <v>6.563905869924615</v>
       </c>
       <c r="G24" t="n">
-        <v>126.3421052631579</v>
+        <v>83.10526315789474</v>
       </c>
       <c r="H24" t="n">
-        <v>124.6842105263158</v>
+        <v>82.36842105263158</v>
       </c>
       <c r="I24" t="n">
-        <v>152.1944444444445</v>
+        <v>101.9722222222222</v>
       </c>
       <c r="J24" t="n">
-        <v>154.6315789473684</v>
+        <v>105.9473684210526</v>
       </c>
     </row>
     <row r="25">
@@ -1276,7 +1275,7 @@
         <v>135.776386913229</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7342513599156941</v>
+        <v>3.67</v>
       </c>
       <c r="E25" t="n">
         <v>9.871129542971472</v>
@@ -1300,613 +1299,511 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.846221322537112</v>
+        <v>8.930116959064328</v>
       </c>
       <c r="C26" t="n">
-        <v>3.490703861756494</v>
+        <v>9.216532321795482</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6969092836433748</v>
+        <v>-3.11</v>
       </c>
       <c r="E26" t="n">
-        <v>0.50426749496717</v>
+        <v>0.6082753394203181</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5746195924315877</v>
+        <v>0.7162793044746552</v>
       </c>
       <c r="G26" t="n">
-        <v>3.263157894736842</v>
+        <v>8</v>
       </c>
       <c r="H26" t="n">
-        <v>2.368421052631579</v>
+        <v>7.594594594594595</v>
       </c>
       <c r="I26" t="n">
-        <v>4.416666666666667</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="J26" t="n">
-        <v>4.605263157894737</v>
+        <v>10.13157894736842</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>difficult_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1018.951018893387</v>
+        <v>32.249870823677</v>
       </c>
       <c r="C27" t="n">
-        <v>998.1023079658605</v>
+        <v>31.51841573842889</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6904268103587409</v>
+        <v>2.32</v>
       </c>
       <c r="E27" t="n">
-        <v>33.58926011363404</v>
+        <v>2.293202954128413</v>
       </c>
       <c r="F27" t="n">
-        <v>47.08488858392513</v>
+        <v>1.899903494079416</v>
       </c>
       <c r="G27" t="n">
-        <v>975.2449999999999</v>
+        <v>29.30679631771737</v>
       </c>
       <c r="H27" t="n">
-        <v>929.0571052631578</v>
+        <v>29.34413504916136</v>
       </c>
       <c r="I27" t="n">
-        <v>1069.193947368421</v>
+        <v>35.22519343477036</v>
       </c>
       <c r="J27" t="n">
-        <v>1083.055945945946</v>
+        <v>35.12504113454114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_high_pressure</t>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>979.8918931623932</v>
+        <v>36.7272154745839</v>
       </c>
       <c r="C28" t="n">
-        <v>962.9081168273536</v>
+        <v>37.57064432853907</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6690025389721102</v>
+        <v>-2.24</v>
       </c>
       <c r="E28" t="n">
-        <v>35.78994585188341</v>
+        <v>0.7280808134355162</v>
       </c>
       <c r="F28" t="n">
-        <v>40.03176016694574</v>
+        <v>2.402950761361569</v>
       </c>
       <c r="G28" t="n">
-        <v>922.2531578947369</v>
+        <v>35.71794871794872</v>
       </c>
       <c r="H28" t="n">
-        <v>906.1273684210526</v>
+        <v>33.6578947368421</v>
       </c>
       <c r="I28" t="n">
-        <v>1018.615</v>
+        <v>37.57894736842105</v>
       </c>
       <c r="J28" t="n">
-        <v>1051.662972972973</v>
+        <v>41.81578947368421</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>263.2026399010346</v>
+        <v>10.24408187558056</v>
       </c>
       <c r="C29" t="n">
-        <v>247.1623217691375</v>
+        <v>10.02827370665353</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6680941486488845</v>
+        <v>2.15</v>
       </c>
       <c r="E29" t="n">
-        <v>22.34238559685733</v>
+        <v>1.17521293187957</v>
       </c>
       <c r="F29" t="n">
-        <v>29.01096766111742</v>
+        <v>1.911384459691803</v>
       </c>
       <c r="G29" t="n">
-        <v>239.7805263157895</v>
+        <v>8.714581164449585</v>
       </c>
       <c r="H29" t="n">
-        <v>179.1665789473684</v>
+        <v>7.700026026604974</v>
       </c>
       <c r="I29" t="n">
-        <v>296.9297368421053</v>
+        <v>11.45251526251526</v>
       </c>
       <c r="J29" t="n">
-        <v>298.1532432432433</v>
+        <v>13.51841141314826</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>count_forced_losses_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1002.218983355826</v>
+        <v>4.510008996851101</v>
       </c>
       <c r="C30" t="n">
-        <v>985.9238636004425</v>
+        <v>4.419730256572363</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5986583426430645</v>
+        <v>2.04</v>
       </c>
       <c r="E30" t="n">
-        <v>49.46665793916689</v>
+        <v>0.3954849416414393</v>
       </c>
       <c r="F30" t="n">
-        <v>43.35943469456892</v>
+        <v>0.49626502758527</v>
       </c>
       <c r="G30" t="n">
-        <v>917.5568421052633</v>
+        <v>4.105263157894737</v>
       </c>
       <c r="H30" t="n">
-        <v>920.5042105263159</v>
+        <v>3.756756756756757</v>
       </c>
       <c r="I30" t="n">
-        <v>1041.155384615384</v>
+        <v>5.052631578947368</v>
       </c>
       <c r="J30" t="n">
-        <v>1075.180810810811</v>
+        <v>5.421052631578948</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>453.7291905083221</v>
+        <v>22.9602114260009</v>
       </c>
       <c r="C31" t="n">
-        <v>442.3434208418946</v>
+        <v>23.39079342500395</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5592251821473476</v>
+        <v>-1.84</v>
       </c>
       <c r="E31" t="n">
-        <v>24.50541610739413</v>
+        <v>1.018042055900326</v>
       </c>
       <c r="F31" t="n">
-        <v>29.01398064428721</v>
+        <v>1.105681667251477</v>
       </c>
       <c r="G31" t="n">
-        <v>420.6602631578947</v>
+        <v>21.92105263157895</v>
       </c>
       <c r="H31" t="n">
-        <v>406.2932432432432</v>
+        <v>21.43243243243243</v>
       </c>
       <c r="I31" t="n">
-        <v>486.1910256410256</v>
+        <v>24.28947368421053</v>
       </c>
       <c r="J31" t="n">
-        <v>490.8267567567568</v>
+        <v>25.54054054054054</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>313.0172739541161</v>
+        <v>9.568735942420153</v>
       </c>
       <c r="C32" t="n">
-        <v>294.094303435014</v>
+        <v>9.397979558505874</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5499585836915775</v>
+        <v>1.82</v>
       </c>
       <c r="E32" t="n">
-        <v>37.36840746937091</v>
+        <v>0.5203928068699913</v>
       </c>
       <c r="F32" t="n">
-        <v>42.28855532921733</v>
+        <v>0.779514593401951</v>
       </c>
       <c r="G32" t="n">
-        <v>263.3773684210526</v>
+        <v>9.026315789473685</v>
       </c>
       <c r="H32" t="n">
-        <v>206.7542105263158</v>
+        <v>8.054054054054054</v>
       </c>
       <c r="I32" t="n">
-        <v>365.3912820512821</v>
+        <v>10.38461538461539</v>
       </c>
       <c r="J32" t="n">
-        <v>354.8686842105263</v>
+        <v>10.56756756756757</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+          <t>ball_retention_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.568735942420153</v>
+        <v>72.17546561868181</v>
       </c>
       <c r="C33" t="n">
-        <v>9.397979558505874</v>
+        <v>70.90217024205138</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3638032401649556</v>
+        <v>1.8</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5203928068699913</v>
+        <v>2.727391226190542</v>
       </c>
       <c r="F33" t="n">
-        <v>0.779514593401951</v>
+        <v>3.099128165720955</v>
       </c>
       <c r="G33" t="n">
-        <v>9.026315789473685</v>
+        <v>67.59879255831888</v>
       </c>
       <c r="H33" t="n">
-        <v>8.054054054054054</v>
+        <v>64.25314372469636</v>
       </c>
       <c r="I33" t="n">
-        <v>10.38461538461539</v>
+        <v>74.40371293618662</v>
       </c>
       <c r="J33" t="n">
-        <v>10.56756756756757</v>
+        <v>74.81590456390455</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_medium_pressure</t>
+          <t>ball_retention_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1004.554729644624</v>
+        <v>69.42074461262234</v>
       </c>
       <c r="C34" t="n">
-        <v>1000.081837073916</v>
+        <v>68.37104935738006</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3187143012436845</v>
+        <v>1.54</v>
       </c>
       <c r="E34" t="n">
-        <v>35.85680868140583</v>
+        <v>3.184333129604278</v>
       </c>
       <c r="F34" t="n">
-        <v>51.55419880285934</v>
+        <v>2.536300826934542</v>
       </c>
       <c r="G34" t="n">
-        <v>947.5063157894737</v>
+        <v>64.01990717177559</v>
       </c>
       <c r="H34" t="n">
-        <v>918.322894736842</v>
+        <v>63.56182060921535</v>
       </c>
       <c r="I34" t="n">
-        <v>1046.340789473684</v>
+        <v>71.70613899063899</v>
       </c>
       <c r="J34" t="n">
-        <v>1080.065945945946</v>
+        <v>73.18292725292726</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_low_pressure_per_match</t>
+          <t>pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.510008996851101</v>
+        <v>71.02504032815662</v>
       </c>
       <c r="C35" t="n">
-        <v>4.419730256572363</v>
+        <v>70.01268134328399</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2673863949487502</v>
+        <v>1.45</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3954849416414393</v>
+        <v>4.379945468596881</v>
       </c>
       <c r="F35" t="n">
-        <v>0.49626502758527</v>
+        <v>3.014039753276818</v>
       </c>
       <c r="G35" t="n">
-        <v>4.105263157894737</v>
+        <v>63.63269269327164</v>
       </c>
       <c r="H35" t="n">
-        <v>3.756756756756757</v>
+        <v>63.45854000385579</v>
       </c>
       <c r="I35" t="n">
-        <v>5.052631578947368</v>
+        <v>74.77236611251996</v>
       </c>
       <c r="J35" t="n">
-        <v>5.421052631578948</v>
+        <v>74.85148303948304</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.930116959064328</v>
+        <v>18.39331983805668</v>
       </c>
       <c r="C36" t="n">
-        <v>9.216532321795482</v>
+        <v>18.62091301828144</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2622905284754363</v>
+        <v>-1.22</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6082753394203181</v>
+        <v>0.8666537796533715</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7162793044746552</v>
+        <v>1.155735909771232</v>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>17.75</v>
       </c>
       <c r="H36" t="n">
-        <v>7.594594594594595</v>
+        <v>15.72972972972973</v>
       </c>
       <c r="I36" t="n">
-        <v>9.666666666666666</v>
+        <v>19.76923076923077</v>
       </c>
       <c r="J36" t="n">
-        <v>10.13157894736842</v>
+        <v>19.68421052631579</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.7272154745839</v>
+        <v>1.762798020692758</v>
       </c>
       <c r="C37" t="n">
-        <v>37.57064432853907</v>
+        <v>1.743490859280333</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2042762534225885</v>
+        <v>1.11</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7280808134355162</v>
+        <v>0.1855090375486463</v>
       </c>
       <c r="F37" t="n">
-        <v>2.402950761361569</v>
+        <v>0.3312868031852271</v>
       </c>
       <c r="G37" t="n">
-        <v>35.71794871794872</v>
+        <v>1.526315789473684</v>
       </c>
       <c r="H37" t="n">
-        <v>33.6578947368421</v>
+        <v>1.27027027027027</v>
       </c>
       <c r="I37" t="n">
-        <v>37.57894736842105</v>
+        <v>1.947368421052632</v>
       </c>
       <c r="J37" t="n">
-        <v>41.81578947368421</v>
+        <v>2.368421052631579</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>143.7800269905533</v>
+        <v>3.473076923076923</v>
       </c>
       <c r="C38" t="n">
-        <v>140.6954320373005</v>
+        <v>3.505708339918866</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1818556921546953</v>
+        <v>-0.93</v>
       </c>
       <c r="E38" t="n">
-        <v>14.37279140452889</v>
+        <v>0.1530997353308844</v>
       </c>
       <c r="F38" t="n">
-        <v>26.2498946751751</v>
+        <v>0.4595011671227312</v>
       </c>
       <c r="G38" t="n">
-        <v>124.1228947368421</v>
+        <v>3.282051282051282</v>
       </c>
       <c r="H38" t="n">
-        <v>108.3334210526316</v>
+        <v>2.621621621621621</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2648717948718</v>
+        <v>3.657894736842105</v>
       </c>
       <c r="J38" t="n">
-        <v>192.1052631578947</v>
+        <v>4.421052631578948</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>22.9602114260009</v>
+        <v>20.22809266756635</v>
       </c>
       <c r="C39" t="n">
-        <v>23.39079342500395</v>
+        <v>20.36418523786945</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1382876892110788</v>
+        <v>-0.67</v>
       </c>
       <c r="E39" t="n">
-        <v>1.018042055900326</v>
+        <v>0.8944236630086213</v>
       </c>
       <c r="F39" t="n">
-        <v>1.105681667251477</v>
+        <v>1.959914707599435</v>
       </c>
       <c r="G39" t="n">
-        <v>21.92105263157895</v>
+        <v>19.23684210526316</v>
       </c>
       <c r="H39" t="n">
-        <v>21.43243243243243</v>
+        <v>16.67567567567568</v>
       </c>
       <c r="I39" t="n">
-        <v>24.28947368421053</v>
+        <v>21.68421052631579</v>
       </c>
       <c r="J39" t="n">
-        <v>25.54054054054054</v>
+        <v>23.47368421052632</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.762798020692758</v>
+        <v>71.14400309531149</v>
       </c>
       <c r="C40" t="n">
-        <v>1.743490859280333</v>
+        <v>71.06181643153749</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1102794713469741</v>
+        <v>0.12</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1855090375486463</v>
+        <v>3.209391540232384</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3312868031852271</v>
+        <v>3.492439819358323</v>
       </c>
       <c r="G40" t="n">
-        <v>1.526315789473684</v>
+        <v>65.6423767110083</v>
       </c>
       <c r="H40" t="n">
-        <v>1.27027027027027</v>
+        <v>63.6277688451899</v>
       </c>
       <c r="I40" t="n">
-        <v>1.947368421052632</v>
+        <v>73.84564891127391</v>
       </c>
       <c r="J40" t="n">
-        <v>2.368421052631579</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>20.22809266756635</v>
-      </c>
-      <c r="C41" t="n">
-        <v>20.36418523786945</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.0406583663531813</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.8944236630086213</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.959914707599435</v>
-      </c>
-      <c r="G41" t="n">
-        <v>19.23684210526316</v>
-      </c>
-      <c r="H41" t="n">
-        <v>16.67567567567568</v>
-      </c>
-      <c r="I41" t="n">
-        <v>21.68421052631579</v>
-      </c>
-      <c r="J41" t="n">
-        <v>23.47368421052632</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>18.39331983805668</v>
-      </c>
-      <c r="C42" t="n">
-        <v>18.62091301828144</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.01743486352527153</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.8666537796533715</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.155735909771232</v>
-      </c>
-      <c r="G42" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="H42" t="n">
-        <v>15.72972972972973</v>
-      </c>
-      <c r="I42" t="n">
-        <v>19.76923076923077</v>
-      </c>
-      <c r="J42" t="n">
-        <v>19.68421052631579</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>3.473076923076923</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3.505708339918866</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.004236007263328978</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.1530997353308844</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.4595011671227312</v>
-      </c>
-      <c r="G43" t="n">
-        <v>3.282051282051282</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2.621621621621621</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.657894736842105</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.421052631578948</v>
+        <v>75.6625461249277</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_pressure.xlsx
+++ b/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_pressure.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.336240020625647</v>
+        <v>8.565383007793118</v>
       </c>
       <c r="C2" t="n">
-        <v>7.130305152843748</v>
+        <v>6.532750709376883</v>
       </c>
       <c r="D2" t="n">
-        <v>30.94</v>
+        <v>31.11</v>
       </c>
       <c r="E2" t="n">
-        <v>1.454401479399138</v>
+        <v>1.371748502529763</v>
       </c>
       <c r="F2" t="n">
-        <v>1.823218997750101</v>
+        <v>1.652472431035928</v>
       </c>
       <c r="G2" t="n">
-        <v>7.029111239637555</v>
+        <v>6.399655955296732</v>
       </c>
       <c r="H2" t="n">
-        <v>4.256878917378917</v>
+        <v>3.915117119233172</v>
       </c>
       <c r="I2" t="n">
-        <v>10.75320563695564</v>
+        <v>9.892657187692578</v>
       </c>
       <c r="J2" t="n">
-        <v>10.15278581068055</v>
+        <v>9.195543905844644</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.510188933873144</v>
+        <v>1.385890456071857</v>
       </c>
       <c r="C3" t="n">
-        <v>1.161740688056477</v>
+        <v>1.06381422774367</v>
       </c>
       <c r="D3" t="n">
-        <v>29.99</v>
+        <v>30.28</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2542689729796163</v>
+        <v>0.2396916952898746</v>
       </c>
       <c r="F3" t="n">
-        <v>0.307200004313833</v>
+        <v>0.2783849758969473</v>
       </c>
       <c r="G3" t="n">
-        <v>1.105263157894737</v>
+        <v>1.006043399606137</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.6350296500358649</v>
       </c>
       <c r="I3" t="n">
-        <v>1.75</v>
+        <v>1.611020134260564</v>
       </c>
       <c r="J3" t="n">
-        <v>1.657894736842105</v>
+        <v>1.519382362112671</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.624336482231219</v>
+        <v>2.410640597050704</v>
       </c>
       <c r="C4" t="n">
-        <v>2.183035667246194</v>
+        <v>2.000435193492698</v>
       </c>
       <c r="D4" t="n">
-        <v>20.22</v>
+        <v>20.51</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3654244503781937</v>
+        <v>0.3431588645066361</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4195592484938722</v>
+        <v>0.3774369966919066</v>
       </c>
       <c r="G4" t="n">
-        <v>2.078947368421053</v>
+        <v>1.899284956914031</v>
       </c>
       <c r="H4" t="n">
-        <v>1.526315789473684</v>
+        <v>1.410419293421</v>
       </c>
       <c r="I4" t="n">
-        <v>3.055555555555555</v>
+        <v>2.813676299716636</v>
       </c>
       <c r="J4" t="n">
-        <v>2.837837837837838</v>
+        <v>2.578409050715873</v>
       </c>
     </row>
     <row r="5">
@@ -589,31 +589,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.69019343229869</v>
+        <v>15.31797612483565</v>
       </c>
       <c r="C5" t="n">
-        <v>14.209369896212</v>
+        <v>13.03439753150214</v>
       </c>
       <c r="D5" t="n">
-        <v>17.46</v>
+        <v>17.52</v>
       </c>
       <c r="E5" t="n">
-        <v>2.740571567925571</v>
+        <v>2.55816329417295</v>
       </c>
       <c r="F5" t="n">
-        <v>2.56610970812234</v>
+        <v>2.326907235871071</v>
       </c>
       <c r="G5" t="n">
-        <v>12.97368421052632</v>
+        <v>11.86438170919754</v>
       </c>
       <c r="H5" t="n">
-        <v>9.026315789473685</v>
+        <v>8.309592396820982</v>
       </c>
       <c r="I5" t="n">
-        <v>20.22222222222222</v>
+        <v>18.6267553478586</v>
       </c>
       <c r="J5" t="n">
-        <v>19.54054054054054</v>
+        <v>17.86666724365256</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.513585245164192</v>
+        <v>5.064005266963316</v>
       </c>
       <c r="C6" t="n">
-        <v>4.70931194352247</v>
+        <v>4.315425007309899</v>
       </c>
       <c r="D6" t="n">
-        <v>17.08</v>
+        <v>17.35</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8903430800583454</v>
+        <v>0.8476403585258567</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8306267030370763</v>
+        <v>0.7560831502999676</v>
       </c>
       <c r="G6" t="n">
-        <v>4.289473684210527</v>
+        <v>3.891934750285112</v>
       </c>
       <c r="H6" t="n">
-        <v>2.947368421052631</v>
+        <v>2.697585580340602</v>
       </c>
       <c r="I6" t="n">
-        <v>6.444444444444445</v>
+        <v>5.95875779720528</v>
       </c>
       <c r="J6" t="n">
-        <v>5.945945945945946</v>
+        <v>5.434765673650782</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.18481781376518</v>
+        <v>17.6000761708881</v>
       </c>
       <c r="C7" t="n">
-        <v>16.53568305147252</v>
+        <v>15.16546310725304</v>
       </c>
       <c r="D7" t="n">
-        <v>16.02</v>
+        <v>16.05</v>
       </c>
       <c r="E7" t="n">
-        <v>2.883621321722518</v>
+        <v>2.694819682605172</v>
       </c>
       <c r="F7" t="n">
-        <v>2.790999176861988</v>
+        <v>2.529511414493091</v>
       </c>
       <c r="G7" t="n">
-        <v>15.42105263157895</v>
+        <v>14.09506098416305</v>
       </c>
       <c r="H7" t="n">
-        <v>11.05263157894737</v>
+        <v>10.17061116057284</v>
       </c>
       <c r="I7" t="n">
-        <v>23.25</v>
+        <v>21.41058995292123</v>
       </c>
       <c r="J7" t="n">
-        <v>21.94594594594595</v>
+        <v>20.06471417986028</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.18477282950967</v>
+        <v>18.52614447702483</v>
       </c>
       <c r="C8" t="n">
-        <v>17.58100468889943</v>
+        <v>16.12575585749938</v>
       </c>
       <c r="D8" t="n">
-        <v>14.81</v>
+        <v>14.89</v>
       </c>
       <c r="E8" t="n">
-        <v>2.830935148955014</v>
+        <v>2.645292757139543</v>
       </c>
       <c r="F8" t="n">
-        <v>2.657775612889215</v>
+        <v>2.400074948502687</v>
       </c>
       <c r="G8" t="n">
-        <v>16.21052631578947</v>
+        <v>14.83393502398734</v>
       </c>
       <c r="H8" t="n">
-        <v>13.02631578947368</v>
+        <v>11.99711956248855</v>
       </c>
       <c r="I8" t="n">
-        <v>23.86111111111111</v>
+        <v>21.97759441061222</v>
       </c>
       <c r="J8" t="n">
-        <v>23.37837837837838</v>
+        <v>21.36224793103679</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.56891587944219</v>
+        <v>9.708868999212649</v>
       </c>
       <c r="C9" t="n">
-        <v>9.232853906538116</v>
+        <v>8.461886087333903</v>
       </c>
       <c r="D9" t="n">
-        <v>14.47</v>
+        <v>14.74</v>
       </c>
       <c r="E9" t="n">
-        <v>1.318457723802081</v>
+        <v>1.265124375996538</v>
       </c>
       <c r="F9" t="n">
-        <v>1.325760001426242</v>
+        <v>1.215034694327539</v>
       </c>
       <c r="G9" t="n">
-        <v>8.605263157894736</v>
+        <v>7.832796240424177</v>
       </c>
       <c r="H9" t="n">
-        <v>6.421052631578948</v>
+        <v>5.874420561207423</v>
       </c>
       <c r="I9" t="n">
-        <v>12.27777777777778</v>
+        <v>11.35585064438947</v>
       </c>
       <c r="J9" t="n">
-        <v>11.07894736842105</v>
+        <v>10.15048953285467</v>
       </c>
     </row>
     <row r="10">
@@ -759,31 +759,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.69482681061628</v>
+        <v>21.73595382610306</v>
       </c>
       <c r="C10" t="n">
-        <v>20.95541330804489</v>
+        <v>19.21712725753227</v>
       </c>
       <c r="D10" t="n">
-        <v>13.07</v>
+        <v>13.11</v>
       </c>
       <c r="E10" t="n">
-        <v>2.961446307634882</v>
+        <v>2.768115433347392</v>
       </c>
       <c r="F10" t="n">
-        <v>2.865289427433527</v>
+        <v>2.587869700880357</v>
       </c>
       <c r="G10" t="n">
-        <v>19.52631578947368</v>
+        <v>17.8605774925761</v>
       </c>
       <c r="H10" t="n">
-        <v>16.39473684210526</v>
+        <v>15.0903415185088</v>
       </c>
       <c r="I10" t="n">
-        <v>27.77777777777778</v>
+        <v>25.57737837236299</v>
       </c>
       <c r="J10" t="n">
-        <v>26.7027027027027</v>
+        <v>24.4053109544749</v>
       </c>
     </row>
     <row r="11">
@@ -793,31 +793,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.626968061178587</v>
+        <v>7.005592049041718</v>
       </c>
       <c r="C11" t="n">
-        <v>6.79456561824983</v>
+        <v>6.23119532036499</v>
       </c>
       <c r="D11" t="n">
-        <v>12.25</v>
+        <v>12.43</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7311622094784265</v>
+        <v>0.6883559467227141</v>
       </c>
       <c r="F11" t="n">
-        <v>1.062349159849555</v>
+        <v>0.9770005713853567</v>
       </c>
       <c r="G11" t="n">
-        <v>6.473684210526316</v>
+        <v>5.936851822843828</v>
       </c>
       <c r="H11" t="n">
-        <v>4.861111111111111</v>
+        <v>4.447640376312369</v>
       </c>
       <c r="I11" t="n">
-        <v>8.472222222222221</v>
+        <v>7.808242880329368</v>
       </c>
       <c r="J11" t="n">
-        <v>8.513513513513514</v>
+        <v>7.825262055526816</v>
       </c>
     </row>
     <row r="12">
@@ -827,31 +827,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.08731443994603</v>
+        <v>70.82781662781403</v>
       </c>
       <c r="C12" t="n">
-        <v>69.82267267267267</v>
+        <v>64.08204753818748</v>
       </c>
       <c r="D12" t="n">
-        <v>10.4</v>
+        <v>10.53</v>
       </c>
       <c r="E12" t="n">
-        <v>12.57087387709173</v>
+        <v>11.70603751087383</v>
       </c>
       <c r="F12" t="n">
-        <v>10.01707456512674</v>
+        <v>9.150788641712808</v>
       </c>
       <c r="G12" t="n">
-        <v>56.52631578947368</v>
+        <v>51.87327252371745</v>
       </c>
       <c r="H12" t="n">
-        <v>51.97368421052632</v>
+        <v>47.75615730667351</v>
       </c>
       <c r="I12" t="n">
-        <v>87.41025641025641</v>
+        <v>80.28543360661705</v>
       </c>
       <c r="J12" t="n">
-        <v>89.81578947368421</v>
+        <v>82.24582440433775</v>
       </c>
     </row>
     <row r="13">
@@ -861,31 +861,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.846221322537112</v>
+        <v>3.531582012538288</v>
       </c>
       <c r="C13" t="n">
-        <v>3.490703861756494</v>
+        <v>3.198585986536426</v>
       </c>
       <c r="D13" t="n">
-        <v>10.18</v>
+        <v>10.41</v>
       </c>
       <c r="E13" t="n">
-        <v>0.50426749496717</v>
+        <v>0.4777068396430045</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5746195924315877</v>
+        <v>0.526490897142727</v>
       </c>
       <c r="G13" t="n">
-        <v>3.263157894736842</v>
+        <v>2.992255121770995</v>
       </c>
       <c r="H13" t="n">
-        <v>2.368421052631579</v>
+        <v>2.164787592259651</v>
       </c>
       <c r="I13" t="n">
-        <v>4.416666666666667</v>
+        <v>4.066142021508265</v>
       </c>
       <c r="J13" t="n">
-        <v>4.605263157894737</v>
+        <v>4.234255617531347</v>
       </c>
     </row>
     <row r="14">
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.33362573099416</v>
+        <v>82.06453223751136</v>
       </c>
       <c r="C14" t="n">
-        <v>81.56018386807861</v>
+        <v>74.85314098456587</v>
       </c>
       <c r="D14" t="n">
-        <v>9.529999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>13.5365188540717</v>
+        <v>12.60318022223563</v>
       </c>
       <c r="F14" t="n">
-        <v>10.62296938117507</v>
+        <v>9.703934034261355</v>
       </c>
       <c r="G14" t="n">
-        <v>66.73684210526316</v>
+        <v>61.22153456743462</v>
       </c>
       <c r="H14" t="n">
-        <v>62.5</v>
+        <v>57.41912897938928</v>
       </c>
       <c r="I14" t="n">
-        <v>100.3333333333333</v>
+        <v>92.1648809940915</v>
       </c>
       <c r="J14" t="n">
-        <v>102.6842105263158</v>
+        <v>94.02726667018787</v>
       </c>
     </row>
     <row r="15">
@@ -929,31 +929,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>52.4928816867493</v>
+        <v>48.20684748018029</v>
       </c>
       <c r="C15" t="n">
-        <v>48.34089765288756</v>
+        <v>44.34708230359838</v>
       </c>
       <c r="D15" t="n">
-        <v>8.59</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>4.691245076638592</v>
+        <v>4.410336955218041</v>
       </c>
       <c r="F15" t="n">
-        <v>5.942040746974369</v>
+        <v>5.41551182118277</v>
       </c>
       <c r="G15" t="n">
-        <v>44.93953981106613</v>
+        <v>41.17080940203395</v>
       </c>
       <c r="H15" t="n">
-        <v>34.66395180258338</v>
+        <v>31.85565092840364</v>
       </c>
       <c r="I15" t="n">
-        <v>56.43114633230018</v>
+        <v>52.15025335521475</v>
       </c>
       <c r="J15" t="n">
-        <v>56.42740967804125</v>
+        <v>51.55774323594751</v>
       </c>
     </row>
     <row r="16">
@@ -963,31 +963,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.45973909131803</v>
+        <v>86.77578665338726</v>
       </c>
       <c r="C16" t="n">
-        <v>87.36481481481481</v>
+        <v>80.17453381111775</v>
       </c>
       <c r="D16" t="n">
-        <v>8.119999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="E16" t="n">
-        <v>12.68147814783006</v>
+        <v>11.8235906267499</v>
       </c>
       <c r="F16" t="n">
-        <v>9.510666480602348</v>
+        <v>8.68487993797738</v>
       </c>
       <c r="G16" t="n">
-        <v>73.5</v>
+        <v>67.44513834778533</v>
       </c>
       <c r="H16" t="n">
-        <v>70.39473684210526</v>
+        <v>64.67815926678404</v>
       </c>
       <c r="I16" t="n">
-        <v>105.2051282051282</v>
+        <v>96.63709701407491</v>
       </c>
       <c r="J16" t="n">
-        <v>106.0789473684211</v>
+        <v>97.11523198142409</v>
       </c>
     </row>
     <row r="17">
@@ -997,31 +997,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>112.2938371569951</v>
+        <v>103.1371696892224</v>
       </c>
       <c r="C17" t="n">
-        <v>104.9509772930826</v>
+        <v>96.31081883995293</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>7.09</v>
       </c>
       <c r="E17" t="n">
-        <v>13.94559954714507</v>
+        <v>12.9900778914515</v>
       </c>
       <c r="F17" t="n">
-        <v>10.29349370325683</v>
+        <v>9.404844930823185</v>
       </c>
       <c r="G17" t="n">
-        <v>88.65789473684211</v>
+        <v>81.31058055075862</v>
       </c>
       <c r="H17" t="n">
-        <v>87.18421052631579</v>
+        <v>80.0968719601268</v>
       </c>
       <c r="I17" t="n">
-        <v>123.9487179487179</v>
+        <v>113.8601288456971</v>
       </c>
       <c r="J17" t="n">
-        <v>125.8947368421053</v>
+        <v>115.240759483247</v>
       </c>
     </row>
     <row r="18">
@@ -1031,31 +1031,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.75528565002249</v>
+        <v>67.72483866786148</v>
       </c>
       <c r="C18" t="n">
-        <v>68.93578315157264</v>
+        <v>63.26187430073603</v>
       </c>
       <c r="D18" t="n">
-        <v>6.99</v>
+        <v>7.05</v>
       </c>
       <c r="E18" t="n">
-        <v>8.086254195114529</v>
+        <v>7.59987005470007</v>
       </c>
       <c r="F18" t="n">
-        <v>7.252422042731636</v>
+        <v>6.553433011659468</v>
       </c>
       <c r="G18" t="n">
-        <v>61.71052631578947</v>
+        <v>56.52968207690235</v>
       </c>
       <c r="H18" t="n">
-        <v>58.18421052631579</v>
+        <v>53.52864686206652</v>
       </c>
       <c r="I18" t="n">
-        <v>82.27777777777777</v>
+        <v>76.02431420612432</v>
       </c>
       <c r="J18" t="n">
-        <v>84.84210526315789</v>
+        <v>77.78047154425167</v>
       </c>
     </row>
     <row r="19">
@@ -1065,31 +1065,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.20001949512101</v>
+        <v>50.69211739554204</v>
       </c>
       <c r="C19" t="n">
-        <v>51.68493821640927</v>
+        <v>47.41532395453828</v>
       </c>
       <c r="D19" t="n">
-        <v>6.8</v>
+        <v>6.91</v>
       </c>
       <c r="E19" t="n">
-        <v>4.279940929814122</v>
+        <v>4.071726453903429</v>
       </c>
       <c r="F19" t="n">
-        <v>5.904810436200223</v>
+        <v>5.38928054846813</v>
       </c>
       <c r="G19" t="n">
-        <v>48.45156718719877</v>
+        <v>44.36828160627763</v>
       </c>
       <c r="H19" t="n">
-        <v>38.02694197031039</v>
+        <v>34.94103122000642</v>
       </c>
       <c r="I19" t="n">
-        <v>59.84265725478225</v>
+        <v>55.31308364809014</v>
       </c>
       <c r="J19" t="n">
-        <v>59.46088538654327</v>
+        <v>54.34400387761803</v>
       </c>
     </row>
     <row r="20">
@@ -1099,99 +1099,99 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.24903554953069</v>
+        <v>20.44579215155953</v>
       </c>
       <c r="C20" t="n">
-        <v>20.92737169447827</v>
+        <v>19.19621465662603</v>
       </c>
       <c r="D20" t="n">
-        <v>6.32</v>
+        <v>6.51</v>
       </c>
       <c r="E20" t="n">
-        <v>2.867423612544366</v>
+        <v>2.71981633972312</v>
       </c>
       <c r="F20" t="n">
-        <v>2.850940159381174</v>
+        <v>2.591374925295072</v>
       </c>
       <c r="G20" t="n">
-        <v>18.87132793522267</v>
+        <v>17.14139831677985</v>
       </c>
       <c r="H20" t="n">
-        <v>15.53563603063603</v>
+        <v>14.2514256866458</v>
       </c>
       <c r="I20" t="n">
-        <v>26.3879085188316</v>
+        <v>24.26918550227828</v>
       </c>
       <c r="J20" t="n">
-        <v>24.77467890881049</v>
+        <v>22.59032836611046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104.030701754386</v>
+        <v>17.09933544338354</v>
       </c>
       <c r="C21" t="n">
-        <v>98.20574258468994</v>
+        <v>16.11574960881844</v>
       </c>
       <c r="D21" t="n">
-        <v>5.93</v>
+        <v>6.1</v>
       </c>
       <c r="E21" t="n">
-        <v>10.17799139937853</v>
+        <v>1.562111033886586</v>
       </c>
       <c r="F21" t="n">
-        <v>8.538416520190518</v>
+        <v>1.793241943431018</v>
       </c>
       <c r="G21" t="n">
-        <v>89.71052631578948</v>
+        <v>15.35393226282491</v>
       </c>
       <c r="H21" t="n">
-        <v>85.94736842105263</v>
+        <v>12.11857449498212</v>
       </c>
       <c r="I21" t="n">
-        <v>115.75</v>
+        <v>19.08287982014093</v>
       </c>
       <c r="J21" t="n">
-        <v>117.2105263157895</v>
+        <v>19.40650061270864</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.62226225731833</v>
+        <v>95.52800501858587</v>
       </c>
       <c r="C22" t="n">
-        <v>17.58697884313586</v>
+        <v>90.11001493881376</v>
       </c>
       <c r="D22" t="n">
-        <v>5.89</v>
+        <v>6.01</v>
       </c>
       <c r="E22" t="n">
-        <v>1.597993908586833</v>
+        <v>9.593761884252615</v>
       </c>
       <c r="F22" t="n">
-        <v>1.948319402583739</v>
+        <v>7.667538627233863</v>
       </c>
       <c r="G22" t="n">
-        <v>16.88554732986312</v>
+        <v>82.19198514296028</v>
       </c>
       <c r="H22" t="n">
-        <v>13.25536808367072</v>
+        <v>79.07083020752353</v>
       </c>
       <c r="I22" t="n">
-        <v>20.67272785109627</v>
+        <v>106.9130877683976</v>
       </c>
       <c r="J22" t="n">
-        <v>21.17582485058801</v>
+        <v>107.4145261516224</v>
       </c>
     </row>
     <row r="23">
@@ -1201,31 +1201,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.87813510353045</v>
+        <v>27.41551230945307</v>
       </c>
       <c r="C23" t="n">
-        <v>31.43611831224375</v>
+        <v>28.82947715268287</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.96</v>
+        <v>-4.9</v>
       </c>
       <c r="E23" t="n">
-        <v>1.285194936486325</v>
+        <v>1.308154954285623</v>
       </c>
       <c r="F23" t="n">
-        <v>1.690702344637068</v>
+        <v>1.582716530604583</v>
       </c>
       <c r="G23" t="n">
-        <v>28.33490861769809</v>
+        <v>25.8586329953945</v>
       </c>
       <c r="H23" t="n">
-        <v>28.20424216324216</v>
+        <v>25.67136560734314</v>
       </c>
       <c r="I23" t="n">
-        <v>31.70571560846561</v>
+        <v>29.24262009233778</v>
       </c>
       <c r="J23" t="n">
-        <v>33.02838748638749</v>
+        <v>30.50855872867531</v>
       </c>
     </row>
     <row r="24">
@@ -1235,31 +1235,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>94.15368870895188</v>
+        <v>86.44445893810969</v>
       </c>
       <c r="C24" t="n">
-        <v>90.00050576892681</v>
+        <v>82.58892288068476</v>
       </c>
       <c r="D24" t="n">
-        <v>4.61</v>
+        <v>4.67</v>
       </c>
       <c r="E24" t="n">
-        <v>7.170040632059128</v>
+        <v>6.839652965167274</v>
       </c>
       <c r="F24" t="n">
-        <v>6.563905869924615</v>
+        <v>5.885820093249933</v>
       </c>
       <c r="G24" t="n">
-        <v>83.10526315789474</v>
+        <v>76.13021056849205</v>
       </c>
       <c r="H24" t="n">
-        <v>82.36842105263158</v>
+        <v>75.7589486335914</v>
       </c>
       <c r="I24" t="n">
-        <v>101.9722222222222</v>
+        <v>94.21542623186333</v>
       </c>
       <c r="J24" t="n">
-        <v>105.9473684210526</v>
+        <v>97.11915244577327</v>
       </c>
     </row>
     <row r="25">
@@ -1269,31 +1269,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.7579172289699</v>
+        <v>129.2296056586938</v>
       </c>
       <c r="C25" t="n">
-        <v>135.776386913229</v>
+        <v>124.5727367736607</v>
       </c>
       <c r="D25" t="n">
-        <v>3.67</v>
+        <v>3.74</v>
       </c>
       <c r="E25" t="n">
-        <v>9.871129542971472</v>
+        <v>9.417453240133325</v>
       </c>
       <c r="F25" t="n">
-        <v>7.95604988594815</v>
+        <v>7.090524919515879</v>
       </c>
       <c r="G25" t="n">
-        <v>126.3421052631579</v>
+        <v>115.721445699044</v>
       </c>
       <c r="H25" t="n">
-        <v>124.6842105263158</v>
+        <v>114.7203877108655</v>
       </c>
       <c r="I25" t="n">
-        <v>152.1944444444445</v>
+        <v>140.5440402814107</v>
       </c>
       <c r="J25" t="n">
-        <v>154.6315789473684</v>
+        <v>141.6616858668597</v>
       </c>
     </row>
     <row r="26">
@@ -1303,31 +1303,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.930116959064328</v>
+        <v>8.190240281646732</v>
       </c>
       <c r="C26" t="n">
-        <v>9.216532321795482</v>
+        <v>8.449312368547409</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.11</v>
+        <v>-3.07</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6082753394203181</v>
+        <v>0.579144379160078</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7162793044746552</v>
+        <v>0.6534429990879151</v>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>7.314206004593141</v>
       </c>
       <c r="H26" t="n">
-        <v>7.594594594594595</v>
+        <v>6.913255624881678</v>
       </c>
       <c r="I26" t="n">
-        <v>9.666666666666666</v>
+        <v>8.88520852954443</v>
       </c>
       <c r="J26" t="n">
-        <v>10.13157894736842</v>
+        <v>9.270697872223591</v>
       </c>
     </row>
     <row r="27">
@@ -1337,31 +1337,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32.249870823677</v>
+        <v>29.60760713956032</v>
       </c>
       <c r="C27" t="n">
-        <v>31.51841573842889</v>
+        <v>28.92710311937263</v>
       </c>
       <c r="D27" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="E27" t="n">
-        <v>2.293202954128413</v>
+        <v>2.123053123217991</v>
       </c>
       <c r="F27" t="n">
-        <v>1.899903494079416</v>
+        <v>1.783374684312475</v>
       </c>
       <c r="G27" t="n">
-        <v>29.30679631771737</v>
+        <v>26.87328754377431</v>
       </c>
       <c r="H27" t="n">
-        <v>29.34413504916136</v>
+        <v>26.87943058574159</v>
       </c>
       <c r="I27" t="n">
-        <v>35.22519343477036</v>
+        <v>32.36513245430616</v>
       </c>
       <c r="J27" t="n">
-        <v>35.12504113454114</v>
+        <v>32.42490839628574</v>
       </c>
     </row>
     <row r="28">
@@ -1371,31 +1371,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.7272154745839</v>
+        <v>33.70160064010796</v>
       </c>
       <c r="C28" t="n">
-        <v>37.57064432853907</v>
+        <v>34.46272183484692</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.24</v>
+        <v>-2.21</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7280808134355162</v>
+        <v>0.6521277532702746</v>
       </c>
       <c r="F28" t="n">
-        <v>2.402950761361569</v>
+        <v>2.252794687552074</v>
       </c>
       <c r="G28" t="n">
-        <v>35.71794871794872</v>
+        <v>32.81138503953775</v>
       </c>
       <c r="H28" t="n">
-        <v>33.6578947368421</v>
+        <v>30.71203724013567</v>
       </c>
       <c r="I28" t="n">
-        <v>37.57894736842105</v>
+        <v>34.60878306036576</v>
       </c>
       <c r="J28" t="n">
-        <v>41.81578947368421</v>
+        <v>38.42727754238924</v>
       </c>
     </row>
     <row r="29">
@@ -1405,31 +1405,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.24408187558056</v>
+        <v>9.388398995518534</v>
       </c>
       <c r="C29" t="n">
-        <v>10.02827370665353</v>
+        <v>9.188153106081417</v>
       </c>
       <c r="D29" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="E29" t="n">
-        <v>1.17521293187957</v>
+        <v>1.130937246287605</v>
       </c>
       <c r="F29" t="n">
-        <v>1.911384459691803</v>
+        <v>1.745602047215163</v>
       </c>
       <c r="G29" t="n">
-        <v>8.714581164449585</v>
+        <v>7.906618336989101</v>
       </c>
       <c r="H29" t="n">
-        <v>7.700026026604974</v>
+        <v>7.023128530731448</v>
       </c>
       <c r="I29" t="n">
-        <v>11.45251526251526</v>
+        <v>10.50731671795062</v>
       </c>
       <c r="J29" t="n">
-        <v>13.51841141314826</v>
+        <v>12.27675402487855</v>
       </c>
     </row>
     <row r="30">
@@ -1439,133 +1439,133 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.510008996851101</v>
+        <v>4.135877655214959</v>
       </c>
       <c r="C30" t="n">
-        <v>4.419730256572363</v>
+        <v>4.051664150279227</v>
       </c>
       <c r="D30" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3954849416414393</v>
+        <v>0.3524198999202106</v>
       </c>
       <c r="F30" t="n">
-        <v>0.49626502758527</v>
+        <v>0.4554164450721871</v>
       </c>
       <c r="G30" t="n">
-        <v>4.105263157894737</v>
+        <v>3.76551650841305</v>
       </c>
       <c r="H30" t="n">
-        <v>3.756756756756757</v>
+        <v>3.445235941680335</v>
       </c>
       <c r="I30" t="n">
-        <v>5.052631578947368</v>
+        <v>4.591894578775816</v>
       </c>
       <c r="J30" t="n">
-        <v>5.421052631578948</v>
+        <v>4.978570830286243</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>ball_retention_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.9602114260009</v>
+        <v>66.33539009640845</v>
       </c>
       <c r="C31" t="n">
-        <v>23.39079342500395</v>
+        <v>65.07082769935018</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.84</v>
+        <v>1.94</v>
       </c>
       <c r="E31" t="n">
-        <v>1.018042055900326</v>
+        <v>2.737829022009495</v>
       </c>
       <c r="F31" t="n">
-        <v>1.105681667251477</v>
+        <v>2.770607139227629</v>
       </c>
       <c r="G31" t="n">
-        <v>21.92105263157895</v>
+        <v>61.97341069876638</v>
       </c>
       <c r="H31" t="n">
-        <v>21.43243243243243</v>
+        <v>58.99554369833887</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28947368421053</v>
+        <v>68.6619255890492</v>
       </c>
       <c r="J31" t="n">
-        <v>25.54054054054054</v>
+        <v>68.34417862337921</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.568735942420153</v>
+        <v>21.07263745171105</v>
       </c>
       <c r="C32" t="n">
-        <v>9.397979558505874</v>
+        <v>21.45767785538708</v>
       </c>
       <c r="D32" t="n">
-        <v>1.82</v>
+        <v>-1.79</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5203928068699913</v>
+        <v>0.8682174740824362</v>
       </c>
       <c r="F32" t="n">
-        <v>0.779514593401951</v>
+        <v>1.056154776632053</v>
       </c>
       <c r="G32" t="n">
-        <v>9.026315789473685</v>
+        <v>20.089045983324</v>
       </c>
       <c r="H32" t="n">
-        <v>8.054054054054054</v>
+        <v>19.54765754965999</v>
       </c>
       <c r="I32" t="n">
-        <v>10.38461538461539</v>
+        <v>22.1216798325188</v>
       </c>
       <c r="J32" t="n">
-        <v>10.56756756756757</v>
+        <v>23.57308190408416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>72.17546561868181</v>
+        <v>8.771641647253919</v>
       </c>
       <c r="C33" t="n">
-        <v>70.90217024205138</v>
+        <v>8.6196950759535</v>
       </c>
       <c r="D33" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="E33" t="n">
-        <v>2.727391226190542</v>
+        <v>0.4822935827077808</v>
       </c>
       <c r="F33" t="n">
-        <v>3.099128165720955</v>
+        <v>0.7272518798499724</v>
       </c>
       <c r="G33" t="n">
-        <v>67.59879255831888</v>
+        <v>8.297084507028288</v>
       </c>
       <c r="H33" t="n">
-        <v>64.25314372469636</v>
+        <v>7.343120046737932</v>
       </c>
       <c r="I33" t="n">
-        <v>74.40371293618662</v>
+        <v>9.518549566911286</v>
       </c>
       <c r="J33" t="n">
-        <v>74.81590456390455</v>
+        <v>9.74609971088778</v>
       </c>
     </row>
     <row r="34">
@@ -1575,31 +1575,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.42074461262234</v>
+        <v>63.79663852730737</v>
       </c>
       <c r="C34" t="n">
-        <v>68.37104935738006</v>
+        <v>62.74636097489237</v>
       </c>
       <c r="D34" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="E34" t="n">
-        <v>3.184333129604278</v>
+        <v>3.106221437029308</v>
       </c>
       <c r="F34" t="n">
-        <v>2.536300826934542</v>
+        <v>2.259124687653503</v>
       </c>
       <c r="G34" t="n">
-        <v>64.01990717177559</v>
+        <v>58.72040143786406</v>
       </c>
       <c r="H34" t="n">
-        <v>63.56182060921535</v>
+        <v>58.42119873135636</v>
       </c>
       <c r="I34" t="n">
-        <v>71.70613899063899</v>
+        <v>66.29717625903702</v>
       </c>
       <c r="J34" t="n">
-        <v>73.18292725292726</v>
+        <v>66.85710831866621</v>
       </c>
     </row>
     <row r="35">
@@ -1609,99 +1609,99 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>71.02504032815662</v>
+        <v>65.26093577501423</v>
       </c>
       <c r="C35" t="n">
-        <v>70.01268134328399</v>
+        <v>64.25097355208202</v>
       </c>
       <c r="D35" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="E35" t="n">
-        <v>4.379945468596881</v>
+        <v>4.146226643238476</v>
       </c>
       <c r="F35" t="n">
-        <v>3.014039753276818</v>
+        <v>2.724910069035285</v>
       </c>
       <c r="G35" t="n">
-        <v>63.63269269327164</v>
+        <v>58.37236531261879</v>
       </c>
       <c r="H35" t="n">
-        <v>63.45854000385579</v>
+        <v>58.33117335911105</v>
       </c>
       <c r="I35" t="n">
-        <v>74.77236611251996</v>
+        <v>68.67364819100777</v>
       </c>
       <c r="J35" t="n">
-        <v>74.85148303948304</v>
+        <v>68.3629216180415</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18.39331983805668</v>
+        <v>1.616317785566582</v>
       </c>
       <c r="C36" t="n">
-        <v>18.62091301828144</v>
+        <v>1.597280398074337</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8666537796533715</v>
+        <v>0.1794954536251064</v>
       </c>
       <c r="F36" t="n">
-        <v>1.155735909771232</v>
+        <v>0.3017557285122426</v>
       </c>
       <c r="G36" t="n">
-        <v>17.75</v>
+        <v>1.386414378774036</v>
       </c>
       <c r="H36" t="n">
-        <v>15.72972972972973</v>
+        <v>1.171010686964805</v>
       </c>
       <c r="I36" t="n">
-        <v>19.76923076923077</v>
+        <v>1.800102473785913</v>
       </c>
       <c r="J36" t="n">
-        <v>19.68421052631579</v>
+        <v>2.176649273793562</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.762798020692758</v>
+        <v>16.88538319807508</v>
       </c>
       <c r="C37" t="n">
-        <v>1.743490859280333</v>
+        <v>17.07793803699742</v>
       </c>
       <c r="D37" t="n">
-        <v>1.11</v>
+        <v>-1.13</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1855090375486463</v>
+        <v>0.7756577961598865</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3312868031852271</v>
+        <v>1.079689568576342</v>
       </c>
       <c r="G37" t="n">
-        <v>1.526315789473684</v>
+        <v>16.36988532008793</v>
       </c>
       <c r="H37" t="n">
-        <v>1.27027027027027</v>
+        <v>14.34622741423436</v>
       </c>
       <c r="I37" t="n">
-        <v>1.947368421052632</v>
+        <v>18.17544044914571</v>
       </c>
       <c r="J37" t="n">
-        <v>2.368421052631579</v>
+        <v>18.10816188367631</v>
       </c>
     </row>
     <row r="38">
@@ -1711,31 +1711,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.473076923076923</v>
+        <v>3.185130243983958</v>
       </c>
       <c r="C38" t="n">
-        <v>3.505708339918866</v>
+        <v>3.213056349755119</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.93</v>
+        <v>-0.87</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1530997353308844</v>
+        <v>0.1501018409291491</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4595011671227312</v>
+        <v>0.419047254270259</v>
       </c>
       <c r="G38" t="n">
-        <v>3.282051282051282</v>
+        <v>3.010210159807008</v>
       </c>
       <c r="H38" t="n">
-        <v>2.621621621621621</v>
+        <v>2.41342584488841</v>
       </c>
       <c r="I38" t="n">
-        <v>3.657894736842105</v>
+        <v>3.377466693799771</v>
       </c>
       <c r="J38" t="n">
-        <v>4.421052631578948</v>
+        <v>4.05566687084303</v>
       </c>
     </row>
     <row r="39">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.22809266756635</v>
+        <v>18.54999338279208</v>
       </c>
       <c r="C39" t="n">
-        <v>20.36418523786945</v>
+        <v>18.68158928812503</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.67</v>
+        <v>-0.7</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8944236630086213</v>
+        <v>0.8505335732176285</v>
       </c>
       <c r="F39" t="n">
-        <v>1.959914707599435</v>
+        <v>1.82301944320041</v>
       </c>
       <c r="G39" t="n">
-        <v>19.23684210526316</v>
+        <v>17.50032242899635</v>
       </c>
       <c r="H39" t="n">
-        <v>16.67567567567568</v>
+        <v>15.20830733644102</v>
       </c>
       <c r="I39" t="n">
-        <v>21.68421052631579</v>
+        <v>19.86248050314585</v>
       </c>
       <c r="J39" t="n">
-        <v>23.47368421052632</v>
+        <v>21.55051489425237</v>
       </c>
     </row>
     <row r="40">
@@ -1779,31 +1779,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.14400309531149</v>
+        <v>65.38722993464907</v>
       </c>
       <c r="C40" t="n">
-        <v>71.06181643153749</v>
+        <v>65.21654156881303</v>
       </c>
       <c r="D40" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="E40" t="n">
-        <v>3.209391540232384</v>
+        <v>3.171738950890961</v>
       </c>
       <c r="F40" t="n">
-        <v>3.492439819358323</v>
+        <v>3.145396453232943</v>
       </c>
       <c r="G40" t="n">
-        <v>65.6423767110083</v>
+        <v>60.16462282370047</v>
       </c>
       <c r="H40" t="n">
-        <v>63.6277688451899</v>
+        <v>58.42356704351844</v>
       </c>
       <c r="I40" t="n">
-        <v>73.84564891127391</v>
+        <v>68.39181857179648</v>
       </c>
       <c r="J40" t="n">
-        <v>75.6625461249277</v>
+        <v>69.28342128159461</v>
       </c>
     </row>
   </sheetData>
